--- a/trunk/techreports/2013/13-07/Lucid-SGSEAM-Assessment-Plan.xlsx
+++ b/trunk/techreports/2013/13-07/Lucid-SGSEAM-Assessment-Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="0" windowWidth="26160" windowHeight="17560" tabRatio="676" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholders" sheetId="13" r:id="rId1"/>
@@ -1240,6 +1240,88 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,6 +1330,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1269,96 +1354,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="251">
@@ -1943,14 +1943,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="86" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="72" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="17" customWidth="1"/>
     <col min="5" max="16384" width="10.77734375" style="2"/>
@@ -1960,7 +1960,7 @@
       <c r="A1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="70"/>
       <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="30">
@@ -1978,7 +1978,7 @@
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="59" t="s">
         <v>145</v>
       </c>
       <c r="C3" s="46" t="s">
@@ -1990,7 +1990,7 @@
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="59" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="46" t="s">
@@ -2002,7 +2002,7 @@
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="73" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="46" t="s">
@@ -2014,10 +2014,10 @@
       <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="60" t="s">
         <v>120</v>
       </c>
       <c r="D6" s="2"/>
@@ -2026,7 +2026,7 @@
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="59" t="s">
         <v>123</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -2038,79 +2038,79 @@
       <c r="A10" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="85"/>
+      <c r="B10" s="71"/>
       <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" s="8" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="52"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="22" t="s">
         <v>83</v>
       </c>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="61" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="61" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="61" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="72" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="61" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="61" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="72" t="s">
+      <c r="B17" s="80"/>
+      <c r="C17" s="61" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="72" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="61" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2144,19 +2144,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="79" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="79" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="65" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1" ht="18">
       <c r="A1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-    </row>
-    <row r="2" spans="1:3" s="83" customFormat="1" ht="22" customHeight="1">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+    </row>
+    <row r="2" spans="1:3" s="69" customFormat="1" ht="22" customHeight="1">
       <c r="A2" s="48" t="s">
         <v>125</v>
       </c>
@@ -2168,75 +2168,75 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="66" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="89" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="66" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="66" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="66" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="76" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2245,7 +2245,6 @@
     <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2294,41 +2293,41 @@
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="1:4" ht="20">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5" spans="1:4" ht="20">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="1:4" ht="20">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2358,11 +2357,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="27" customFormat="1" ht="22" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="19" customHeight="1">
@@ -2387,7 +2386,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="88"/>
+      <c r="D3" s="74"/>
     </row>
     <row r="4" spans="1:4" ht="30">
       <c r="A4" s="35" t="s">
@@ -2397,7 +2396,7 @@
       <c r="C4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="59" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2407,7 +2406,7 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="52" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2419,7 +2418,7 @@
       <c r="C6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="59" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2429,7 +2428,7 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="52" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2437,13 +2436,13 @@
       <c r="A8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="52" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2451,9 +2450,9 @@
       <c r="A9" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="63" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="52" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2461,29 +2460,29 @@
       <c r="A10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="88"/>
+      <c r="D10" s="74"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="88"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4" ht="30">
       <c r="A13" s="35" t="s">
@@ -2493,7 +2492,7 @@
       <c r="C13" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="63" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2503,7 +2502,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="59" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2513,7 +2512,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="52" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2523,7 +2522,7 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="52" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2533,7 +2532,7 @@
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="59" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2551,7 +2550,6 @@
     <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2564,7 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2618,7 +2616,7 @@
       <c r="A5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="47" t="s">
@@ -2629,7 +2627,7 @@
       <c r="A6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="47" t="s">
         <v>119</v>
       </c>
@@ -2667,13 +2665,13 @@
       <c r="A11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="51" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2681,13 +2679,13 @@
       <c r="A12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="53">
         <v>0.3</v>
       </c>
     </row>
@@ -2695,13 +2693,13 @@
       <c r="A13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="53">
         <v>0.05</v>
       </c>
     </row>
@@ -2709,13 +2707,13 @@
       <c r="A14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="54" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2723,13 +2721,13 @@
       <c r="A15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="55">
         <v>2</v>
       </c>
     </row>
@@ -2737,13 +2735,13 @@
       <c r="A16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="55">
         <v>2</v>
       </c>
     </row>
@@ -2751,13 +2749,13 @@
       <c r="A17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="53">
         <v>0.01</v>
       </c>
     </row>
@@ -2833,7 +2831,6 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2861,42 +2858,42 @@
       </c>
     </row>
     <row r="2" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="57" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="57" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="57" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="57" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="2" customFormat="1" ht="30">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="57" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="67"/>
+      <c r="A9" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2927,45 +2924,45 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="57" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="57" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="57" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="57" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="57" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="2" customFormat="1" ht="30">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="57" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="2" customFormat="1">
-      <c r="A9" s="67"/>
+      <c r="A9" s="56"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="69"/>
+      <c r="A10" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/techreports/2013/13-07/Lucid-SGSEAM-Assessment-Plan.xlsx
+++ b/trunk/techreports/2013/13-07/Lucid-SGSEAM-Assessment-Plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="676"/>
+    <workbookView xWindow="1760" yWindow="560" windowWidth="42340" windowHeight="23660" tabRatio="676" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholders" sheetId="13" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="168">
   <si>
     <t xml:space="preserve">Game designer </t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
     <t xml:space="preserve">Player </t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t xml:space="preserve">Game developer </t>
   </si>
   <si>
-    <t>Person name</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. What did you like most about the game? </t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>System admin Post-hoc Interview Questionnaires</t>
   </si>
   <si>
-    <t xml:space="preserve">Player Usability Survey Questionnaires </t>
-  </si>
-  <si>
     <t xml:space="preserve">3. How much time did you spend to maintain the system such as backup, patching, monitoring? </t>
   </si>
   <si>
@@ -170,9 +161,6 @@
     <t>Player effectiveness study</t>
   </si>
   <si>
-    <t>Orgainization</t>
-  </si>
-  <si>
     <t>Competition Director (CD)</t>
   </si>
   <si>
@@ -287,27 +275,6 @@
     <t xml:space="preserve">Stakeholder  </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Behavior Change Manager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Technical Manager, Competition Director, Research Manager</t>
-    </r>
-  </si>
-  <si>
     <t>Participants Chosen for SGSEAM Assessment</t>
   </si>
   <si>
@@ -353,49 +320,10 @@
     <t xml:space="preserve">Metric </t>
   </si>
   <si>
-    <t xml:space="preserve">Definition </t>
-  </si>
-  <si>
-    <t xml:space="preserve">participation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">game error </t>
-  </si>
-  <si>
     <t>Player Engagement Metrics Goals</t>
   </si>
   <si>
-    <t xml:space="preserve">daily player </t>
-  </si>
-  <si>
-    <t xml:space="preserve">average play time of a player per day </t>
-  </si>
-  <si>
-    <t xml:space="preserve">daily play time </t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of players who participated in the game </t>
-  </si>
-  <si>
-    <t xml:space="preserve">average percentage of players per day </t>
-  </si>
-  <si>
     <t>5 minutes</t>
-  </si>
-  <si>
-    <t>average submissions of a player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submission </t>
-  </si>
-  <si>
-    <t xml:space="preserve">social interaction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">average social interaction of a player </t>
-  </si>
-  <si>
-    <t>percentage of players who encountered errors</t>
   </si>
   <si>
     <t>50% of players can name three things to save electricity</t>
@@ -424,42 +352,9 @@
     <t>Internal or external Developer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Technical Manager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Marketing Manager, 
-Building Captain Manager, Events  Manager</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Stakeholder </t>
   </si>
   <si>
-    <t xml:space="preserve">identify problem areas in game interface </t>
-  </si>
-  <si>
-    <t xml:space="preserve">determine the extent of engagement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">identify strengths and weaknesses in the installation and maintenance process. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Determine strengths and weaknesses in the game design interface. </t>
   </si>
   <si>
@@ -473,21 +368,6 @@
   </si>
   <si>
     <t>Pre-post effectiveness study</t>
-  </si>
-  <si>
-    <r>
-      <t>Engagement metrics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>Usability survey</t>
@@ -559,13 +439,113 @@
   </si>
   <si>
     <t>‹</t>
+  </si>
+  <si>
+    <t>Comments on stakeholder definitions</t>
+  </si>
+  <si>
+    <t>Person name(s)</t>
+  </si>
+  <si>
+    <t>Organization(s)</t>
+  </si>
+  <si>
+    <t>Contact(s)</t>
+  </si>
+  <si>
+    <t>Comments on mapping</t>
+  </si>
+  <si>
+    <t>Response type</t>
+  </si>
+  <si>
+    <t>short answer</t>
+  </si>
+  <si>
+    <t>participation (percentage of players who participated in the game )</t>
+  </si>
+  <si>
+    <t>daily player (average percentage of players per day)</t>
+  </si>
+  <si>
+    <t>daily play time (average play time of a player per day )</t>
+  </si>
+  <si>
+    <t>submission (average submissions of a player)</t>
+  </si>
+  <si>
+    <t>social interaction (average social interaction of a player )</t>
+  </si>
+  <si>
+    <t>game error (percentage of players who encountered errors)</t>
+  </si>
+  <si>
+    <t>Player Usability Survey Questionaire</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Behavior Change Manager, Technical Manager, Competition Director, Research Manager</t>
+  </si>
+  <si>
+    <t>Technical Manager, Marketing Manager, 
+Building Captain Manager, Events  Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify problem areas in game interface </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engagement metrics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine the extent of engagement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify strengths and weaknesses in the installation and maintenance process. </t>
+  </si>
+  <si>
+    <t>Player(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System admin(s) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game designer(s) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game manager(s) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game developer(s) </t>
+  </si>
+  <si>
+    <t>Comments on approach</t>
+  </si>
+  <si>
+    <t>Comments on schedule</t>
+  </si>
+  <si>
+    <t>Comments on question</t>
+  </si>
+  <si>
+    <t>Comments on effectiveness criteria</t>
+  </si>
+  <si>
+    <t>Comments on engagement criteria</t>
+  </si>
+  <si>
+    <t>Comments on usability question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.Can we call you for a short phone interview if we have more questions regarding your experience with the system? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -595,31 +575,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,23 +589,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Verdana"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -670,12 +630,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -862,8 +822,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="251">
+  <cellStyleXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1115,253 +1090,276 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="251">
+  <cellStyles count="267">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1487,6 +1485,14 @@
     <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1612,6 +1618,14 @@
     <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1943,176 +1957,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="72" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="10.77734375" style="2"/>
+    <col min="1" max="1" width="10" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="10.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="30">
-      <c r="A2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>148</v>
+    <row r="1" spans="1:4" ht="20" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="27" customFormat="1" ht="30">
+      <c r="A2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" ht="45">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="90">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="60">
-      <c r="A5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="B6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="59" t="s">
+    </row>
+    <row r="11" spans="1:4" s="27" customFormat="1" ht="23" customHeight="1">
+      <c r="A11" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="10" spans="1:4" s="29" customFormat="1" ht="18">
-      <c r="A10" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="71"/>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" s="8" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="16"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="61" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="79" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="79" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="61" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="61" t="s">
-        <v>54</v>
-      </c>
+      <c r="D18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2136,109 +2158,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="65" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="65" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="10.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="18">
-      <c r="A1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-    </row>
-    <row r="2" spans="1:3" s="69" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="25" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34" customHeight="1">
-      <c r="A6" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="66" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="27" customFormat="1" ht="22" customHeight="1">
+      <c r="A2" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" ht="24" customHeight="1">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4" ht="25" customHeight="1">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" ht="34" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="76" t="s">
+      <c r="B7" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>131</v>
-      </c>
+      <c r="B9" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2257,77 +2289,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.77734375" style="2"/>
+    <col min="1" max="2" width="12.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="10.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="26" customFormat="1" ht="23" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-    </row>
-    <row r="4" spans="1:4" ht="20">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-    </row>
-    <row r="5" spans="1:4" ht="20">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+    <row r="1" spans="1:4" s="27" customFormat="1" ht="23" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-    </row>
-    <row r="7" spans="1:4" ht="20">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
+      <c r="A6" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2344,201 +2373,219 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="21" style="39" customWidth="1"/>
-    <col min="5" max="16384" width="10.77734375" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="21" style="41" customWidth="1"/>
+    <col min="5" max="5" width="21" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1" ht="22" customHeight="1">
-      <c r="A1" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="19" customHeight="1">
-      <c r="A2" s="31" t="s">
+    <row r="1" spans="1:5" ht="22" customHeight="1">
+      <c r="A1" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+    </row>
+    <row r="2" spans="1:5" s="27" customFormat="1" ht="19" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="74"/>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="35" t="s">
+      <c r="C8" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="35" t="s">
+      <c r="B10" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" ht="45">
+      <c r="A13" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="37" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="37" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="74"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="74"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="74"/>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="35" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="34" customFormat="1" ht="45">
-      <c r="A17" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="59" t="s">
-        <v>92</v>
-      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" s="30" customFormat="1" ht="45">
+      <c r="A17" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="60"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="E20" s="2" t="s">
-        <v>157</v>
+      <c r="E20" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2560,277 +2607,318 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44" style="13" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="37.33203125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="27" customFormat="1" ht="18">
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="45" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:5" ht="19" customHeight="1">
+      <c r="A3" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="78"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="72"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" customHeight="1">
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="16" customHeight="1">
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="74"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="81"/>
+      <c r="B19" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="70"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="70"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A4" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="91" t="s">
+      <c r="B24" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" ht="23" customHeight="1">
+      <c r="A25" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="84">
+        <v>0.3</v>
+      </c>
+      <c r="C25" s="85"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="84">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="85"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A7" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A8" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A9" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18">
-      <c r="A10" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A11" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A12" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="53">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A13" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="53">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A14" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A15" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="55">
+      <c r="C27" s="74"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="69">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A16" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="55">
+      <c r="C28" s="74"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="69">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="15">
-      <c r="A17" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="53">
+      <c r="C29" s="74"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="84">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="16" customHeight="1">
-      <c r="A18"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="16" customHeight="1">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1">
-      <c r="A20"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1">
-      <c r="A21"/>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1">
-      <c r="A24"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1">
-      <c r="A25"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1">
-      <c r="A26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="C30"/>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="C31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="C30" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2841,59 +2929,71 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A13" activeCellId="5" sqref="A3:XFD3 A5:XFD5 A7:XFD7 A9:XFD9 A11:XFD11 A13:XFD13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="54.21875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="27" customFormat="1" ht="18">
-      <c r="A1" s="40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A2" s="57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A3" s="57" t="s">
+    <row r="1" spans="1:2" s="88" customFormat="1">
+      <c r="A1" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="90" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A4" s="57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A5" s="57" t="s">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="90" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A6" s="57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A7" s="57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="2" customFormat="1" ht="30">
-      <c r="A8" s="57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="56"/>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2907,62 +3007,73 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="62.5546875" style="41" customWidth="1"/>
+    <col min="1" max="1" width="62.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="27" customFormat="1" ht="18">
-      <c r="A1" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" customHeight="1">
-      <c r="A2" s="57" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="18">
+      <c r="A1" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" customHeight="1">
+      <c r="A2" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="15">
+      <c r="A3" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="15">
+      <c r="A4" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" ht="15">
+      <c r="A5" s="89" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A3" s="57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A4" s="57" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A5" s="57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A6" s="57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A7" s="57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="2" customFormat="1" ht="30">
-      <c r="A8" s="57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="2" customFormat="1">
-      <c r="A9" s="56"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="58"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" ht="15">
+      <c r="A6" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="15">
+      <c r="A7" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" ht="30">
+      <c r="A8" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" s="1" customFormat="1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2976,46 +3087,56 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.33203125" customWidth="1"/>
+    <col min="1" max="1" width="60.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="27" customFormat="1" ht="18">
-      <c r="A1" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A2" s="42" t="s">
+    <row r="1" spans="1:2" s="96" customFormat="1">
+      <c r="A1" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="68" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A3" s="42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A4" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A5" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A6" s="42" t="s">
-        <v>35</v>
-      </c>
+      <c r="B6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3029,47 +3150,56 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" customWidth="1"/>
+    <col min="1" max="1" width="57.77734375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A2" s="42" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="68" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A3" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A4" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="2" customFormat="1" ht="15">
-      <c r="A5" s="42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5"/>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="97"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/techreports/2013/13-07/Lucid-SGSEAM-Assessment-Plan.xlsx
+++ b/trunk/techreports/2013/13-07/Lucid-SGSEAM-Assessment-Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="560" windowWidth="42340" windowHeight="23660" tabRatio="676" activeTab="4"/>
+    <workbookView xWindow="-25220" yWindow="10520" windowWidth="21380" windowHeight="14020" tabRatio="676" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholders" sheetId="13" r:id="rId1"/>
@@ -1957,7 +1957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1965,7 +1965,7 @@
   <cols>
     <col min="1" max="1" width="10" style="13" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="47.5546875" style="13" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="22" customWidth="1"/>
     <col min="5" max="16384" width="10.77734375" style="13"/>
   </cols>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="90">
+    <row r="6" spans="1:4" ht="75">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -2160,15 +2160,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="27" customWidth="1"/>
     <col min="2" max="2" width="17.21875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30" style="30" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" style="30" customWidth="1"/>
     <col min="4" max="4" width="26.88671875" style="13" customWidth="1"/>
     <col min="5" max="16384" width="10.77734375" style="13"/>
   </cols>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D6" s="35"/>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2372,7 +2372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2609,7 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2931,7 +2931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3009,7 +3009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -3089,7 +3089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -3152,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/trunk/techreports/2013/13-07/Lucid-SGSEAM-Assessment-Plan.xlsx
+++ b/trunk/techreports/2013/13-07/Lucid-SGSEAM-Assessment-Plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25220" yWindow="10520" windowWidth="21380" windowHeight="14020" tabRatio="676" activeTab="4"/>
+    <workbookView xWindow="28240" yWindow="6540" windowWidth="23020" windowHeight="21760" tabRatio="676" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholders" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="160">
   <si>
     <t xml:space="preserve">Game designer </t>
   </si>
@@ -146,21 +146,12 @@
     <t>Game Developer Post-hoc Interview Questionnaires</t>
   </si>
   <si>
-    <t>Competition</t>
-  </si>
-  <si>
     <t>Game manager post-hoc interview</t>
   </si>
   <si>
     <t>Game developer post-hoc interview</t>
   </si>
   <si>
-    <t>System admin post-hoc interview</t>
-  </si>
-  <si>
-    <t>Player effectiveness study</t>
-  </si>
-  <si>
     <t>Competition Director (CD)</t>
   </si>
   <si>
@@ -185,12 +176,6 @@
     <t>Set up buildings, meters, and competition in BuildingOS</t>
   </si>
   <si>
-    <t>Feb 10 - 14</t>
-  </si>
-  <si>
-    <t>Feb 24 - 28</t>
-  </si>
-  <si>
     <t>Mar 10 - 14</t>
   </si>
   <si>
@@ -215,21 +200,9 @@
     <t>May 5 - 9</t>
   </si>
   <si>
-    <t xml:space="preserve">Finalize interview and survey questionnaires </t>
-  </si>
-  <si>
-    <t>Feb 17 - 21</t>
-  </si>
-  <si>
-    <t>Feb 3 - 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apr 7 - 11 </t>
   </si>
   <si>
-    <t>CCN window starts</t>
-  </si>
-  <si>
     <t>Mar 3 - 7</t>
   </si>
   <si>
@@ -251,9 +224,6 @@
     <t>Finalize stakeholders and assessment approaches</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>Game Manager</t>
   </si>
   <si>
@@ -290,9 +260,6 @@
     <t>Collect, verify and  enter final competition data into BuildingOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Analyze the data; Interpret strength and weakness; Produce action document  </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. How much time did you spend to install the system and the dependencies? </t>
   </si>
   <si>
@@ -305,9 +272,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Player Pre-Post Effectiveness Goals</t>
-  </si>
-  <si>
     <t>Behavior Change</t>
   </si>
   <si>
@@ -318,9 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve">Metric </t>
-  </si>
-  <si>
-    <t>Player Engagement Metrics Goals</t>
   </si>
   <si>
     <t>5 minutes</t>
@@ -412,9 +373,6 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>Use BuildingDashboard to view and participate.</t>
-  </si>
-  <si>
     <t>Install software, backup, patch, monitor and scale the system.</t>
   </si>
   <si>
@@ -422,25 +380,9 @@
 • Customize dashboard interface</t>
   </si>
   <si>
-    <t>Verify baseline data, Collect and verify competition data, Enter data into BuildingOS; Kick-off and other events; Social media</t>
-  </si>
-  <si>
-    <t>Game developer Development using Lucid APIs</t>
-  </si>
-  <si>
     <t>May 12 - 16</t>
   </si>
   <si>
-    <t>Player usability survey</t>
-  </si>
-  <si>
-    <t>Game designer post-hoc interview;
-Obtain log data</t>
-  </si>
-  <si>
-    <t>‹</t>
-  </si>
-  <si>
     <t>Comments on stakeholder definitions</t>
   </si>
   <si>
@@ -462,9 +404,6 @@
     <t>short answer</t>
   </si>
   <si>
-    <t>participation (percentage of players who participated in the game )</t>
-  </si>
-  <si>
     <t>daily player (average percentage of players per day)</t>
   </si>
   <si>
@@ -478,9 +417,6 @@
   </si>
   <si>
     <t>game error (percentage of players who encountered errors)</t>
-  </si>
-  <si>
-    <t>Player Usability Survey Questionaire</t>
   </si>
   <si>
     <t>Question</t>
@@ -529,16 +465,55 @@
     <t>Comments on question</t>
   </si>
   <si>
-    <t>Comments on effectiveness criteria</t>
-  </si>
-  <si>
-    <t>Comments on engagement criteria</t>
-  </si>
-  <si>
-    <t>Comments on usability question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.Can we call you for a short phone interview if we have more questions regarding your experience with the system? </t>
+    <t>Use BuildingDashboard to view building data and participate in the competition.</t>
+  </si>
+  <si>
+    <t>May 19 - 23</t>
+  </si>
+  <si>
+    <t>May 26 - 30</t>
+  </si>
+  <si>
+    <t>Player effectiveness &amp; usability study</t>
+  </si>
+  <si>
+    <t>Finalize interview and survey questionnaires</t>
+  </si>
+  <si>
+    <t>Kick-off, Collect competition data, Enter data into BuildingOS,  manage events, Social media</t>
+  </si>
+  <si>
+    <t>Analyze data, interpret strength and weakness, produce action document</t>
+  </si>
+  <si>
+    <t>Baseline (2 weeks)</t>
+  </si>
+  <si>
+    <t>Competition (3 weeks)</t>
+  </si>
+  <si>
+    <t>Game designer post-hoc interview</t>
+  </si>
+  <si>
+    <t>Obtain log data, System admin post-hoc interview</t>
+  </si>
+  <si>
+    <t>1. Player Pre-Post Effectiveness Goals</t>
+  </si>
+  <si>
+    <t>2. Player Usability Survey Questionaire</t>
+  </si>
+  <si>
+    <t>3. Player Engagement Metrics Goals</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>participation (percentage of players who participated in the game)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Can we call you for a short phone interview if we have more questions regarding your experience with the system? </t>
   </si>
 </sst>
 </file>
@@ -635,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -714,43 +689,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -838,7 +776,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="267">
+  <cellStyleXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1106,8 +1044,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1120,8 +1116,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1145,8 +1139,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1174,29 +1166,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,7 +1191,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1218,43 +1201,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1285,17 +1236,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1315,31 +1260,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1350,16 +1283,59 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="267">
+  <cellStyles count="325">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1493,6 +1469,35 @@
     <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1626,6 +1631,35 @@
     <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1958,183 +1992,183 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="10.77734375" style="13"/>
+    <col min="1" max="1" width="10" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="10.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
-      <c r="A1" s="88" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="27" customFormat="1" ht="30">
-      <c r="A2" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A1" s="64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="23" customFormat="1" ht="30">
+      <c r="A2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="12"/>
+      <c r="B3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="12"/>
+      <c r="B4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" ht="75">
-      <c r="A6" s="15" t="s">
+      <c r="B5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="90">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="12"/>
+      <c r="B6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="12"/>
+      <c r="B7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="27" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>139</v>
+      <c r="A10" s="64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="23" customFormat="1" ht="23" customHeight="1">
+      <c r="A11" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="17" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="17" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="17" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2161,116 +2195,116 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="10.77734375" style="13"/>
+    <col min="1" max="1" width="11.5546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="19" style="24" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="10.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="27" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="23" customFormat="1" ht="22" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>161</v>
+      <c r="C2" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="35"/>
+      <c r="B3" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="35"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="35"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="34" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="35"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="34" t="s">
+      <c r="A6" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="35"/>
+      <c r="B7" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="35"/>
+      <c r="B8" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="35"/>
+      <c r="B9" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2293,70 +2327,71 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="12.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="10.77734375" style="13"/>
+    <col min="1" max="1" width="17.21875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1" ht="23" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>82</v>
+    <row r="1" spans="1:4" s="23" customFormat="1" ht="23" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="33" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2370,233 +2405,209 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="21" style="41" customWidth="1"/>
-    <col min="5" max="5" width="21" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="13"/>
+    <col min="1" max="1" width="9.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="84" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="10.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1">
-      <c r="A1" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-    </row>
-    <row r="2" spans="1:5" s="27" customFormat="1" ht="19" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="42" t="s">
+      <c r="A1" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+    </row>
+    <row r="2" spans="1:5" s="23" customFormat="1">
+      <c r="A2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="42" t="s">
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="78"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="78"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="78"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="42" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="78"/>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="50" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" ht="29" customHeight="1">
+      <c r="A11" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="42" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1">
+      <c r="A12" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1">
+      <c r="A13" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="46" t="s">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" s="24" customFormat="1" ht="33" customHeight="1">
+      <c r="A14" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" s="30" customFormat="1" ht="45">
-      <c r="A17" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="60"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" s="13" t="s">
-        <v>134</v>
-      </c>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2607,315 +2618,304 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="44" style="13" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" style="13" customWidth="1"/>
-    <col min="3" max="4" width="37.33203125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="13"/>
+    <col min="1" max="1" width="41.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="10.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65"/>
+      <c r="A1" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="65"/>
-    </row>
-    <row r="3" spans="1:5" ht="19" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A2" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="77"/>
+      <c r="B5" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="50"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="50"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="58"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:5" ht="19" customHeight="1">
+      <c r="A10" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="B10" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="B11" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="68" t="s">
+      <c r="B12" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="68" t="s">
+      <c r="B13" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="68" t="s">
+      <c r="B14" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B15" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="68" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B16" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="68" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B17" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="68" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+    </row>
+    <row r="18" spans="1:5" ht="30">
+      <c r="A18" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B18" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="78"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="68" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="57"/>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B19" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="72"/>
-    </row>
-    <row r="13" spans="1:5" ht="16" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="16" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="81"/>
-      <c r="B19" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="70"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="70"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="62"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="58"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="87">
+        <v>0.3</v>
+      </c>
       <c r="C23" s="62"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" ht="23" customHeight="1">
-      <c r="A25" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="84">
-        <v>0.3</v>
-      </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="84">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="87">
         <v>0.05</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="69">
-        <v>2</v>
-      </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="69">
-        <v>2</v>
-      </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="84">
+      <c r="C24" s="62"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="87">
+        <v>0.02</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="87">
+        <v>0.02</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="87">
         <v>0.01</v>
       </c>
-      <c r="C30" s="85"/>
+      <c r="C28" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2931,69 +2931,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.21875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="13"/>
+    <col min="1" max="1" width="52.77734375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="88" customFormat="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:2" s="64" customFormat="1">
+      <c r="A1" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>163</v>
+      <c r="B1" s="68" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="12"/>
+      <c r="A2" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="90" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="12"/>
+      <c r="A8" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="91"/>
+      <c r="A9" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3010,64 +3008,64 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="62.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="58.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="18">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="95" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="B1" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="15">
-      <c r="A3" s="89" t="s">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="30">
+      <c r="A3" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="15">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="15">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" ht="15">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" ht="15">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" ht="30">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1">
       <c r="A9" s="4"/>
@@ -3090,53 +3088,53 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="60.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="13"/>
+    <col min="1" max="1" width="58.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="96" customFormat="1">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:2" s="69" customFormat="1" ht="19" customHeight="1">
+      <c r="A1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>163</v>
+      <c r="B1" s="68" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3152,54 +3150,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="57.77734375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="13"/>
+    <col min="1" max="1" width="55.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>163</v>
+      <c r="B1" s="68" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="97"/>
+      <c r="A6" s="70"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="97"/>
+      <c r="A7" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
